--- a/biology/Botanique/Mademoiselle_Blanche_Lafitte/Mademoiselle_Blanche_Lafitte.xlsx
+++ b/biology/Botanique/Mademoiselle_Blanche_Lafitte/Mademoiselle_Blanche_Lafitte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Mademoiselle Blanche Lafitte' est un cultivar de rosier Bourbon obtenu en 1851 par les rosiéristes français Henri et Giraud Pradel, père et fils[1].
+'Mademoiselle Blanche Lafitte' est un cultivar de rosier Bourbon obtenu en 1851 par les rosiéristes français Henri et Giraud Pradel, père et fils.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson de ce rosier s'élève de 150 cm à 180 cm[2]. Ses roses doubles délicates (26-40 pétales) sont moyennes et de couleur blanche avec de légères nuances rosées. Elles exhalent un agréable parfum fruité. Leur floraison est remontante[3].
-La zone de rusticité de 'Mademoiselle Blanche Lafitte' est de 5b à 10b. On peut admirer ce rosier notamment à l'Europa-Rosarium de Sangerhausen[1]. Ce rosier nécessite d'être planté dans une situation ensoleillée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson de ce rosier s'élève de 150 cm à 180 cm. Ses roses doubles délicates (26-40 pétales) sont moyennes et de couleur blanche avec de légères nuances rosées. Elles exhalent un agréable parfum fruité. Leur floraison est remontante.
+La zone de rusticité de 'Mademoiselle Blanche Lafitte' est de 5b à 10b. On peut admirer ce rosier notamment à l'Europa-Rosarium de Sangerhausen. Ce rosier nécessite d'être planté dans une situation ensoleillée.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par croisement avec 'Sapho' (Vibert 1842), ce rosier a donné naissance à 'Madame Alfred de Rougemont' (Lacharme, 1862), à 'Coquette des Blanches' (Lacharme, 1871)[4] et à 'Perle des Blanches' (Lacharme, 1872)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par croisement avec 'Sapho' (Vibert 1842), ce rosier a donné naissance à 'Madame Alfred de Rougemont' (Lacharme, 1862), à 'Coquette des Blanches' (Lacharme, 1871) et à 'Perle des Blanches' (Lacharme, 1872).
 </t>
         </is>
       </c>
